--- a/Data_clean/MCAS/Estados_US/Edos_USA_2021/RHODE_ISLAND_2021.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2021/RHODE_ISLAND_2021.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D157"/>
+  <dimension ref="A1:D151"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,22 +360,22 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
@@ -607,7 +607,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Ciudad de México</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -755,7 +755,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Estado de México</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -773,7 +773,7 @@
     <row r="29">
       <c r="B29" t="inlineStr">
         <is>
-          <t>Atizapán de Zaragoza</t>
+          <t>Atizapán De Zaragoza</t>
         </is>
       </c>
       <c r="C29">
@@ -786,7 +786,7 @@
     <row r="30">
       <c r="B30" t="inlineStr">
         <is>
-          <t>Ixtapan de la Sal</t>
+          <t>Ixtapan De La Sal</t>
         </is>
       </c>
       <c r="C30">
@@ -895,7 +895,7 @@
     <row r="38">
       <c r="B38" t="inlineStr">
         <is>
-          <t>Apaseo el Alto</t>
+          <t>Apaseo El Alto</t>
         </is>
       </c>
       <c r="C38">
@@ -952,7 +952,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Acapulco de Juárez</t>
+          <t>Acapulco De Juárez</t>
         </is>
       </c>
       <c r="C42">
@@ -1004,7 +1004,7 @@
     <row r="46">
       <c r="B46" t="inlineStr">
         <is>
-          <t>Ayutla de los Libres</t>
+          <t>Ayutla De Los Libres</t>
         </is>
       </c>
       <c r="C46">
@@ -1043,7 +1043,7 @@
     <row r="49">
       <c r="B49" t="inlineStr">
         <is>
-          <t>Huitzuco de los Figueroa</t>
+          <t>Huitzuco De Los Figueroa</t>
         </is>
       </c>
       <c r="C49">
@@ -1056,7 +1056,7 @@
     <row r="50">
       <c r="B50" t="inlineStr">
         <is>
-          <t>Iguala de la Independencia</t>
+          <t>Iguala De La Independencia</t>
         </is>
       </c>
       <c r="C50">
@@ -1069,7 +1069,7 @@
     <row r="51">
       <c r="B51" t="inlineStr">
         <is>
-          <t>Zihuatanejo de Azueta</t>
+          <t>Zihuatanejo De Azueta</t>
         </is>
       </c>
       <c r="C51">
@@ -1134,7 +1134,7 @@
     <row r="56">
       <c r="B56" t="inlineStr">
         <is>
-          <t>Tepecoacuilco de Trujano</t>
+          <t>Tepecoacuilco De Trujano</t>
         </is>
       </c>
       <c r="C56">
@@ -1147,7 +1147,7 @@
     <row r="57">
       <c r="B57" t="inlineStr">
         <is>
-          <t>Tlapa de Comonfort</t>
+          <t>Tlapa De Comonfort</t>
         </is>
       </c>
       <c r="C57">
@@ -1204,7 +1204,7 @@
     <row r="61">
       <c r="B61" t="inlineStr">
         <is>
-          <t>Atotonilco de Tula</t>
+          <t>Atotonilco De Tula</t>
         </is>
       </c>
       <c r="C61">
@@ -1282,7 +1282,7 @@
     <row r="67">
       <c r="B67" t="inlineStr">
         <is>
-          <t>Nopala de Villagrán</t>
+          <t>Nopala De Villagrán</t>
         </is>
       </c>
       <c r="C67">
@@ -1308,7 +1308,7 @@
     <row r="69">
       <c r="B69" t="inlineStr">
         <is>
-          <t>Tepehuacán de Guerrero</t>
+          <t>Tepehuacán De Guerrero</t>
         </is>
       </c>
       <c r="C69">
@@ -1417,7 +1417,7 @@
     <row r="77">
       <c r="B77" t="inlineStr">
         <is>
-          <t>Tizapán el Alto</t>
+          <t>Tizapán El Alto</t>
         </is>
       </c>
       <c r="C77">
@@ -1430,7 +1430,7 @@
     <row r="78">
       <c r="B78" t="inlineStr">
         <is>
-          <t>Unión de Tula</t>
+          <t>Unión De Tula</t>
         </is>
       </c>
       <c r="C78">
@@ -1697,7 +1697,7 @@
     <row r="97">
       <c r="B97" t="inlineStr">
         <is>
-          <t>Villa de Tututepec de Melchor Ocampo</t>
+          <t>Villa De Tututepec De Melchor Ocampo</t>
         </is>
       </c>
       <c r="C97">
@@ -1793,7 +1793,7 @@
     <row r="104">
       <c r="B104" t="inlineStr">
         <is>
-          <t>Cuayuca de Andrade</t>
+          <t>Cuayuca De Andrade</t>
         </is>
       </c>
       <c r="C104">
@@ -1832,7 +1832,7 @@
     <row r="107">
       <c r="B107" t="inlineStr">
         <is>
-          <t>Izúcar de Matamoros</t>
+          <t>Izúcar De Matamoros</t>
         </is>
       </c>
       <c r="C107">
@@ -1871,7 +1871,7 @@
     <row r="110">
       <c r="B110" t="inlineStr">
         <is>
-          <t>San Nicolás de los Ranchos</t>
+          <t>San Nicolás De Los Ranchos</t>
         </is>
       </c>
       <c r="C110">
@@ -1954,7 +1954,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Landa de Matamoros</t>
+          <t>Landa De Matamoros</t>
         </is>
       </c>
       <c r="C116">
@@ -2270,7 +2270,7 @@
     <row r="138">
       <c r="B138" t="inlineStr">
         <is>
-          <t>Ignacio de la Llave</t>
+          <t>Ignacio De La Llave</t>
         </is>
       </c>
       <c r="C138">
@@ -2452,41 +2452,6 @@
       </c>
       <c r="D151">
         <v>1</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 701,861</t>
-        </is>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de los Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" t="inlineStr">
-        <is>
-          <t>Mayo de 2022</t>
-        </is>
       </c>
     </row>
   </sheetData>

--- a/Data_clean/MCAS/Estados_US/Edos_USA_2021/RHODE_ISLAND_2021.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2021/RHODE_ISLAND_2021.xlsx
@@ -398,6 +398,11 @@
       </c>
     </row>
     <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Baja California</t>
+        </is>
+      </c>
       <c r="B3" t="inlineStr">
         <is>
           <t>Total</t>
@@ -429,6 +434,11 @@
       </c>
     </row>
     <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Campeche</t>
+        </is>
+      </c>
       <c r="B5" t="inlineStr">
         <is>
           <t>Total</t>
@@ -460,6 +470,11 @@
       </c>
     </row>
     <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B7" t="inlineStr">
         <is>
           <t>Huehuetán</t>
@@ -473,6 +488,11 @@
       </c>
     </row>
     <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B8" t="inlineStr">
         <is>
           <t>Villa Comaltitlán</t>
@@ -486,6 +506,11 @@
       </c>
     </row>
     <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B9" t="inlineStr">
         <is>
           <t>Total</t>
@@ -517,6 +542,11 @@
       </c>
     </row>
     <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B11" t="inlineStr">
         <is>
           <t>Total</t>
@@ -548,6 +578,11 @@
       </c>
     </row>
     <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Coahuila</t>
+        </is>
+      </c>
       <c r="B13" t="inlineStr">
         <is>
           <t>Zaragoza</t>
@@ -561,6 +596,11 @@
       </c>
     </row>
     <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Coahuila</t>
+        </is>
+      </c>
       <c r="B14" t="inlineStr">
         <is>
           <t>Total</t>
@@ -592,6 +632,11 @@
       </c>
     </row>
     <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Colima</t>
+        </is>
+      </c>
       <c r="B16" t="inlineStr">
         <is>
           <t>Total</t>
@@ -623,6 +668,11 @@
       </c>
     </row>
     <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B18" t="inlineStr">
         <is>
           <t>Benito Juárez</t>
@@ -636,6 +686,11 @@
       </c>
     </row>
     <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B19" t="inlineStr">
         <is>
           <t>Cuauhtémoc</t>
@@ -649,6 +704,11 @@
       </c>
     </row>
     <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B20" t="inlineStr">
         <is>
           <t>Gustavo A. Madero</t>
@@ -662,6 +722,11 @@
       </c>
     </row>
     <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B21" t="inlineStr">
         <is>
           <t>Iztacalco</t>
@@ -675,6 +740,11 @@
       </c>
     </row>
     <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B22" t="inlineStr">
         <is>
           <t>Iztapalapa</t>
@@ -688,6 +758,11 @@
       </c>
     </row>
     <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B23" t="inlineStr">
         <is>
           <t>La Magdalena Contreras</t>
@@ -701,6 +776,11 @@
       </c>
     </row>
     <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B24" t="inlineStr">
         <is>
           <t>Miguel Hidalgo</t>
@@ -714,6 +794,11 @@
       </c>
     </row>
     <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B25" t="inlineStr">
         <is>
           <t>Tláhuac</t>
@@ -727,6 +812,11 @@
       </c>
     </row>
     <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B26" t="inlineStr">
         <is>
           <t>Venustiano Carranza</t>
@@ -740,6 +830,11 @@
       </c>
     </row>
     <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B27" t="inlineStr">
         <is>
           <t>Total</t>
@@ -771,6 +866,11 @@
       </c>
     </row>
     <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B29" t="inlineStr">
         <is>
           <t>Atizapán De Zaragoza</t>
@@ -784,6 +884,11 @@
       </c>
     </row>
     <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B30" t="inlineStr">
         <is>
           <t>Ixtapan De La Sal</t>
@@ -797,6 +902,11 @@
       </c>
     </row>
     <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B31" t="inlineStr">
         <is>
           <t>Ixtlahuaca</t>
@@ -810,6 +920,11 @@
       </c>
     </row>
     <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B32" t="inlineStr">
         <is>
           <t>Jiquipilco</t>
@@ -823,6 +938,11 @@
       </c>
     </row>
     <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B33" t="inlineStr">
         <is>
           <t>Nezahualcóyotl</t>
@@ -836,6 +956,11 @@
       </c>
     </row>
     <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B34" t="inlineStr">
         <is>
           <t>Tecámac</t>
@@ -849,6 +974,11 @@
       </c>
     </row>
     <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B35" t="inlineStr">
         <is>
           <t>Tenancingo</t>
@@ -862,6 +992,11 @@
       </c>
     </row>
     <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B36" t="inlineStr">
         <is>
           <t>Total</t>
@@ -893,6 +1028,11 @@
       </c>
     </row>
     <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B38" t="inlineStr">
         <is>
           <t>Apaseo El Alto</t>
@@ -906,6 +1046,11 @@
       </c>
     </row>
     <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B39" t="inlineStr">
         <is>
           <t>León</t>
@@ -919,6 +1064,11 @@
       </c>
     </row>
     <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B40" t="inlineStr">
         <is>
           <t>Salamanca</t>
@@ -932,6 +1082,11 @@
       </c>
     </row>
     <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B41" t="inlineStr">
         <is>
           <t>Total</t>
@@ -963,6 +1118,11 @@
       </c>
     </row>
     <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B43" t="inlineStr">
         <is>
           <t>Acatepec</t>
@@ -976,6 +1136,11 @@
       </c>
     </row>
     <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B44" t="inlineStr">
         <is>
           <t>Alpoyeca</t>
@@ -989,6 +1154,11 @@
       </c>
     </row>
     <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B45" t="inlineStr">
         <is>
           <t>Atlixtac</t>
@@ -1002,6 +1172,11 @@
       </c>
     </row>
     <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B46" t="inlineStr">
         <is>
           <t>Ayutla De Los Libres</t>
@@ -1015,6 +1190,11 @@
       </c>
     </row>
     <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B47" t="inlineStr">
         <is>
           <t>Azoyú</t>
@@ -1028,6 +1208,11 @@
       </c>
     </row>
     <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B48" t="inlineStr">
         <is>
           <t>Florencio Villarreal</t>
@@ -1041,6 +1226,11 @@
       </c>
     </row>
     <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B49" t="inlineStr">
         <is>
           <t>Huitzuco De Los Figueroa</t>
@@ -1054,6 +1244,11 @@
       </c>
     </row>
     <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B50" t="inlineStr">
         <is>
           <t>Iguala De La Independencia</t>
@@ -1067,6 +1262,11 @@
       </c>
     </row>
     <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B51" t="inlineStr">
         <is>
           <t>Zihuatanejo De Azueta</t>
@@ -1080,6 +1280,11 @@
       </c>
     </row>
     <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B52" t="inlineStr">
         <is>
           <t>Ometepec</t>
@@ -1093,6 +1298,11 @@
       </c>
     </row>
     <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B53" t="inlineStr">
         <is>
           <t>San Luis Acatlán</t>
@@ -1106,6 +1316,11 @@
       </c>
     </row>
     <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B54" t="inlineStr">
         <is>
           <t>San Marcos</t>
@@ -1119,6 +1334,11 @@
       </c>
     </row>
     <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B55" t="inlineStr">
         <is>
           <t>Tecoanapa</t>
@@ -1132,6 +1352,11 @@
       </c>
     </row>
     <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B56" t="inlineStr">
         <is>
           <t>Tepecoacuilco De Trujano</t>
@@ -1145,6 +1370,11 @@
       </c>
     </row>
     <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B57" t="inlineStr">
         <is>
           <t>Tlapa De Comonfort</t>
@@ -1158,6 +1388,11 @@
       </c>
     </row>
     <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B58" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1189,6 +1424,11 @@
       </c>
     </row>
     <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B60" t="inlineStr">
         <is>
           <t>Alfajayucan</t>
@@ -1202,6 +1442,11 @@
       </c>
     </row>
     <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B61" t="inlineStr">
         <is>
           <t>Atotonilco De Tula</t>
@@ -1215,6 +1460,11 @@
       </c>
     </row>
     <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B62" t="inlineStr">
         <is>
           <t>Cardonal</t>
@@ -1228,6 +1478,11 @@
       </c>
     </row>
     <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B63" t="inlineStr">
         <is>
           <t>Chapantongo</t>
@@ -1241,6 +1496,11 @@
       </c>
     </row>
     <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B64" t="inlineStr">
         <is>
           <t>Chapulhuacán</t>
@@ -1254,6 +1514,11 @@
       </c>
     </row>
     <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B65" t="inlineStr">
         <is>
           <t>Chilcuautla</t>
@@ -1267,6 +1532,11 @@
       </c>
     </row>
     <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B66" t="inlineStr">
         <is>
           <t>Ixmiquilpan</t>
@@ -1280,6 +1550,11 @@
       </c>
     </row>
     <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B67" t="inlineStr">
         <is>
           <t>Nopala De Villagrán</t>
@@ -1293,6 +1568,11 @@
       </c>
     </row>
     <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B68" t="inlineStr">
         <is>
           <t>Tepeapulco</t>
@@ -1306,6 +1586,11 @@
       </c>
     </row>
     <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B69" t="inlineStr">
         <is>
           <t>Tepehuacán De Guerrero</t>
@@ -1319,6 +1604,11 @@
       </c>
     </row>
     <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B70" t="inlineStr">
         <is>
           <t>Tlahuelilpan</t>
@@ -1332,6 +1622,11 @@
       </c>
     </row>
     <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B71" t="inlineStr">
         <is>
           <t>Tlahuiltepa</t>
@@ -1345,6 +1640,11 @@
       </c>
     </row>
     <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B72" t="inlineStr">
         <is>
           <t>Zimapán</t>
@@ -1358,6 +1658,11 @@
       </c>
     </row>
     <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B73" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1389,6 +1694,11 @@
       </c>
     </row>
     <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B75" t="inlineStr">
         <is>
           <t>Ocotlán</t>
@@ -1402,6 +1712,11 @@
       </c>
     </row>
     <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B76" t="inlineStr">
         <is>
           <t>Puerto Vallarta</t>
@@ -1415,6 +1730,11 @@
       </c>
     </row>
     <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B77" t="inlineStr">
         <is>
           <t>Tizapán El Alto</t>
@@ -1428,6 +1748,11 @@
       </c>
     </row>
     <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B78" t="inlineStr">
         <is>
           <t>Unión De Tula</t>
@@ -1441,6 +1766,11 @@
       </c>
     </row>
     <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B79" t="inlineStr">
         <is>
           <t>Zapopan</t>
@@ -1454,6 +1784,11 @@
       </c>
     </row>
     <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B80" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1485,6 +1820,11 @@
       </c>
     </row>
     <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B82" t="inlineStr">
         <is>
           <t>Arteaga</t>
@@ -1498,6 +1838,11 @@
       </c>
     </row>
     <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B83" t="inlineStr">
         <is>
           <t>Lázaro Cárdenas</t>
@@ -1511,6 +1856,11 @@
       </c>
     </row>
     <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B84" t="inlineStr">
         <is>
           <t>Morelia</t>
@@ -1524,6 +1874,11 @@
       </c>
     </row>
     <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B85" t="inlineStr">
         <is>
           <t>Tarímbaro</t>
@@ -1537,6 +1892,11 @@
       </c>
     </row>
     <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B86" t="inlineStr">
         <is>
           <t>Tuxpan</t>
@@ -1550,6 +1910,11 @@
       </c>
     </row>
     <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B87" t="inlineStr">
         <is>
           <t>Tuzantla</t>
@@ -1563,6 +1928,11 @@
       </c>
     </row>
     <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B88" t="inlineStr">
         <is>
           <t>Zitácuaro</t>
@@ -1576,6 +1946,11 @@
       </c>
     </row>
     <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B89" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1607,6 +1982,11 @@
       </c>
     </row>
     <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B91" t="inlineStr">
         <is>
           <t>Tlaquiltenango</t>
@@ -1620,6 +2000,11 @@
       </c>
     </row>
     <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B92" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1651,6 +2036,11 @@
       </c>
     </row>
     <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Nuevo León</t>
+        </is>
+      </c>
       <c r="B94" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1682,6 +2072,11 @@
       </c>
     </row>
     <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B96" t="inlineStr">
         <is>
           <t>Santa Cruz Itundujia</t>
@@ -1695,6 +2090,11 @@
       </c>
     </row>
     <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B97" t="inlineStr">
         <is>
           <t>Villa De Tututepec De Melchor Ocampo</t>
@@ -1708,6 +2108,11 @@
       </c>
     </row>
     <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B98" t="inlineStr">
         <is>
           <t>Zapotitlán Lagunas</t>
@@ -1721,6 +2126,11 @@
       </c>
     </row>
     <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B99" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1752,6 +2162,11 @@
       </c>
     </row>
     <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B101" t="inlineStr">
         <is>
           <t>Acatlán</t>
@@ -1765,6 +2180,11 @@
       </c>
     </row>
     <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B102" t="inlineStr">
         <is>
           <t>Atlixco</t>
@@ -1778,6 +2198,11 @@
       </c>
     </row>
     <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B103" t="inlineStr">
         <is>
           <t>Chietla</t>
@@ -1791,6 +2216,11 @@
       </c>
     </row>
     <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B104" t="inlineStr">
         <is>
           <t>Cuayuca De Andrade</t>
@@ -1804,6 +2234,11 @@
       </c>
     </row>
     <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B105" t="inlineStr">
         <is>
           <t>Huaquechula</t>
@@ -1817,6 +2252,11 @@
       </c>
     </row>
     <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B106" t="inlineStr">
         <is>
           <t>Huejotzingo</t>
@@ -1830,6 +2270,11 @@
       </c>
     </row>
     <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B107" t="inlineStr">
         <is>
           <t>Izúcar De Matamoros</t>
@@ -1843,6 +2288,11 @@
       </c>
     </row>
     <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B108" t="inlineStr">
         <is>
           <t>Piaxtla</t>
@@ -1856,6 +2306,11 @@
       </c>
     </row>
     <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B109" t="inlineStr">
         <is>
           <t>Puebla</t>
@@ -1869,6 +2324,11 @@
       </c>
     </row>
     <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B110" t="inlineStr">
         <is>
           <t>San Nicolás De Los Ranchos</t>
@@ -1882,6 +2342,11 @@
       </c>
     </row>
     <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B111" t="inlineStr">
         <is>
           <t>San Pedro Cholula</t>
@@ -1895,6 +2360,11 @@
       </c>
     </row>
     <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B112" t="inlineStr">
         <is>
           <t>San Salvador Huixcolotla</t>
@@ -1908,6 +2378,11 @@
       </c>
     </row>
     <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B113" t="inlineStr">
         <is>
           <t>Tepeojuma</t>
@@ -1921,6 +2396,11 @@
       </c>
     </row>
     <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B114" t="inlineStr">
         <is>
           <t>Tulcingo</t>
@@ -1934,6 +2414,11 @@
       </c>
     </row>
     <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B115" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1965,6 +2450,11 @@
       </c>
     </row>
     <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B117" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1996,6 +2486,11 @@
       </c>
     </row>
     <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B119" t="inlineStr">
         <is>
           <t>Salinas</t>
@@ -2009,6 +2504,11 @@
       </c>
     </row>
     <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B120" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2040,6 +2540,11 @@
       </c>
     </row>
     <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B122" t="inlineStr">
         <is>
           <t>Guasave</t>
@@ -2053,6 +2558,11 @@
       </c>
     </row>
     <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B123" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2084,6 +2594,11 @@
       </c>
     </row>
     <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
       <c r="B125" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2115,6 +2630,11 @@
       </c>
     </row>
     <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B127" t="inlineStr">
         <is>
           <t>Centro</t>
@@ -2128,6 +2648,11 @@
       </c>
     </row>
     <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B128" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2159,6 +2684,11 @@
       </c>
     </row>
     <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B130" t="inlineStr">
         <is>
           <t>Tampico</t>
@@ -2172,6 +2702,11 @@
       </c>
     </row>
     <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B131" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2203,6 +2738,11 @@
       </c>
     </row>
     <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B133" t="inlineStr">
         <is>
           <t>Atoyac</t>
@@ -2216,6 +2756,11 @@
       </c>
     </row>
     <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B134" t="inlineStr">
         <is>
           <t>Benito Juárez</t>
@@ -2229,6 +2774,11 @@
       </c>
     </row>
     <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B135" t="inlineStr">
         <is>
           <t>Coatzacoalcos</t>
@@ -2242,6 +2792,11 @@
       </c>
     </row>
     <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B136" t="inlineStr">
         <is>
           <t>Córdoba</t>
@@ -2255,6 +2810,11 @@
       </c>
     </row>
     <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B137" t="inlineStr">
         <is>
           <t>Huatusco</t>
@@ -2268,6 +2828,11 @@
       </c>
     </row>
     <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B138" t="inlineStr">
         <is>
           <t>Ignacio De La Llave</t>
@@ -2281,6 +2846,11 @@
       </c>
     </row>
     <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B139" t="inlineStr">
         <is>
           <t>Minatitlán</t>
@@ -2294,6 +2864,11 @@
       </c>
     </row>
     <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B140" t="inlineStr">
         <is>
           <t>Papantla</t>
@@ -2307,6 +2882,11 @@
       </c>
     </row>
     <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B141" t="inlineStr">
         <is>
           <t>Tantoyuca</t>
@@ -2320,6 +2900,11 @@
       </c>
     </row>
     <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B142" t="inlineStr">
         <is>
           <t>Texcatepec</t>
@@ -2333,6 +2918,11 @@
       </c>
     </row>
     <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B143" t="inlineStr">
         <is>
           <t>Tezonapa</t>
@@ -2346,6 +2936,11 @@
       </c>
     </row>
     <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B144" t="inlineStr">
         <is>
           <t>Tlalixcoyan</t>
@@ -2359,6 +2954,11 @@
       </c>
     </row>
     <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B145" t="inlineStr">
         <is>
           <t>Tlaltetela</t>
@@ -2372,6 +2972,11 @@
       </c>
     </row>
     <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B146" t="inlineStr">
         <is>
           <t>Veracruz</t>
@@ -2385,6 +2990,11 @@
       </c>
     </row>
     <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B147" t="inlineStr">
         <is>
           <t>Xalapa</t>
@@ -2398,6 +3008,11 @@
       </c>
     </row>
     <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B148" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2429,6 +3044,11 @@
       </c>
     </row>
     <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>Yucatán</t>
+        </is>
+      </c>
       <c r="B150" t="inlineStr">
         <is>
           <t>Total</t>
